--- a/CupCarbon/data/GraficaTiempos.xlsx
+++ b/CupCarbon/data/GraficaTiempos.xlsx
@@ -8,57 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Daniel Mateo\Documentos\Universidad\2022-1\Proyecto de grado (ISIS)\Repositorio\ProyectoGrado_ISIS\CupCarbon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE6D46A-18CF-4F10-8BCD-D5273621D097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF096C-0216-4E06-8D31-9C0C98DE1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Diffs" sheetId="2" r:id="rId2"/>
     <sheet name="Diffs 2" sheetId="5" r:id="rId3"/>
+    <sheet name="PoLe" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Diffs!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Diffs!$A$2:$A$81</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Diffs!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Diffs!$F$2:$F$81</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Diffs!$G$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Diffs!$G$2:$G$12</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Diffs!$G$2:$G$81</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Diffs!$I$1:$I$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Diffs!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Diffs!$A$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Diffs!$A$2:$A$81</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Diffs!$B$2:$B$81</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Diffs!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Diffs!$C$2:$C$81</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Diffs!$D$2:$D$81</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Diffs!$E$2:$E$81</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Diffs!$F$2:$F$81</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Diffs!$G$2:$G$81</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Diffs!$A$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Diffs!$A$2:$A$81</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Diffs!$B$2:$B$81</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Diffs!$C$2:$C$81</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Diffs!$D$2:$D$81</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Diffs!$B$2:$B$81</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Diffs!$E$2:$E$81</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Diffs!$F$2:$F$81</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Diffs!$G$2:$G$81</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Diffs 2'!$A$1:$A$467</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Diffs 2'!$B$1:$B$467</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Diffs 2'!$A$1:$A$467</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Diffs 2'!$B$1:$B$467</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Diffs 2'!$A$1:$A$467</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Diffs 2'!$B$1:$B$467</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Diffs!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Diffs!$C$2:$C$81</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Diffs!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Diffs!$D$2:$D$81</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Diffs!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Diffs!$E$2:$E$81</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Diffs 2'!$A$1:$A$467</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Diffs 2'!$B$1:$B$467</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">PoLe!$A$1:$A$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Diffs!$B$2:$B$81</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Diffs!$C$2:$C$81</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Diffs!$D$2:$D$81</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Diffs!$E$2:$E$81</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Diffs!$F$2:$F$81</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Diffs!$G$2:$G$81</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Diffs 2'!$A$1:$A$305</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Diffs 2'!$B$1:$B$305</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -443,40 +419,40 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -487,6 +463,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A5D4764E-8D16-4810-AA68-3CAF7934A670}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dificultad 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -499,6 +476,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{267F45E9-D800-4FC9-8CB1-04973D659F74}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dificultad 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -511,6 +489,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E8117DE4-5494-436B-A3AD-B844271538C0}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dificultad 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -523,6 +502,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FED62C05-2DB3-4A85-9F47-F3D3CDA05D92}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dificultad 4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -535,6 +515,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6C141D0F-FEB9-4832-90E0-033821FD7648}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dificultad 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -547,6 +528,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{130ABB9B-0BDD-4DEF-B6B0-CF6DA2250DD7}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dificultad 6</cx:v>
             </cx:txData>
           </cx:tx>
@@ -559,6 +541,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DE9CF551-5AE0-4DE4-A791-030C509E192D}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dificultad 7</cx:v>
             </cx:txData>
           </cx:tx>
@@ -588,10 +571,156 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2AEC561F-1A03-46D5-B0A4-BDE9126AD9C9}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Dificultad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1050">
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Dificultad</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Tiempo de generación de bloques [segundos]</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1050">
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Tiempo de generación de bloques [segundos]</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -599,7 +728,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{2AEC561F-1A03-46D5-B0A4-BDE9126AD9C9}" formatIdx="0">
+        <cx:series layoutId="boxWhisker" uniqueId="{9D98022E-2B92-4DD3-AEA5-7E6A4C992A93}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -738,6 +867,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1757,6 +1926,521 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2445,6 +3129,89 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3444240" y="933450"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF73E6F-93E5-68E7-2EB3-0477C0496851}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4800600" y="933450"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4415,10 +5182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C191739D-EC82-4FF9-9C66-FE133EB9D956}">
-  <dimension ref="A1:B467"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4428,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4436,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>139</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4444,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4452,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>143</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4460,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4468,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>154</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4476,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4484,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4492,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4500,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4508,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4516,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>155</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4524,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4532,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>166</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4540,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4548,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>177</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4556,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4564,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4572,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4580,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4588,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4596,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>179</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4604,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4612,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4620,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4628,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>179</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4636,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4644,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>175</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4652,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4660,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>175</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4668,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4676,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>172</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4684,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4692,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4700,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4708,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4716,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4724,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -4732,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -4740,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4748,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>140</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -4756,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4764,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4772,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4780,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4788,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4796,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4804,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4812,207 +5579,207 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>176</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>175</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>177</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>180</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>178</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>189</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>132</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66">
-        <v>271</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>239</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>131</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>240</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72">
-        <v>171</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5020,7 +5787,7 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -5028,7 +5795,7 @@
         <v>2</v>
       </c>
       <c r="B76">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5036,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -5044,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="B78">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -5052,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="B79">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -5060,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -5068,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="B81">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5076,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="B82">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -5084,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="B83">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -5092,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="B84">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -5100,7 +5867,7 @@
         <v>2</v>
       </c>
       <c r="B85">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -5108,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="B86">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -5116,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -5124,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="B88">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -5132,7 +5899,7 @@
         <v>2</v>
       </c>
       <c r="B89">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -5140,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="B90">
-        <v>176</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5148,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="B91">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5156,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="B92">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -5164,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="B93">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5172,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>179</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -5180,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="B95">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5188,7 +5955,7 @@
         <v>2</v>
       </c>
       <c r="B96">
-        <v>179</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5196,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="B97">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -5204,100 +5971,100 @@
         <v>2</v>
       </c>
       <c r="B98">
-        <v>177</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100">
-        <v>176</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102">
-        <v>175</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B103">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104">
-        <v>176</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B105">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106">
-        <v>172</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B107">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B109">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B110">
         <v>72</v>
@@ -5305,447 +6072,447 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B111">
-        <v>126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B113">
-        <v>143</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B114">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B115">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117">
-        <v>43</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B118">
-        <v>175</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120">
-        <v>178</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B121">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B122">
-        <v>176</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B123">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B125">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B126">
-        <v>176</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B128">
-        <v>174</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B130">
-        <v>177</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B131">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B132">
-        <v>178</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B133">
-        <v>59</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B135">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B136">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B137">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B138">
-        <v>180</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B139">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B140">
-        <v>210</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142">
-        <v>163</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143">
-        <v>179</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B145">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B146">
-        <v>174</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B147">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B148">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B149">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B150">
-        <v>223</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B151">
-        <v>165</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B152">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B153">
-        <v>149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B154">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B155">
-        <v>143</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B156">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B157">
-        <v>133</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B158">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B159">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B161">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B162">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B163">
-        <v>156</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B164">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B165">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B166">
         <v>61</v>
@@ -5753,2410 +6520,1281 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B167">
-        <v>176</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B168">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B169">
-        <v>175</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B170">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B171">
-        <v>178</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B172">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B173">
-        <v>178</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B174">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B175">
-        <v>177</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B176">
-        <v>59</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B177">
-        <v>177</v>
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B178">
-        <v>61</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B179">
-        <v>175</v>
+        <v>118</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B180">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B181">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B182">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B183">
-        <v>145</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B184">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B185">
-        <v>140</v>
+        <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B186">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B187">
-        <v>176</v>
+        <v>84</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B188">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B189">
-        <v>179</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B190">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B191">
-        <v>179</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B192">
-        <v>94</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B193">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B194">
-        <v>60</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B195">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B196">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B197">
-        <v>175</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B198">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B199">
-        <v>175</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B200">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B201">
-        <v>176</v>
+        <v>97</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B202">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B203">
-        <v>146</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B204">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B205">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B206">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B207">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B208">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B209">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B210">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B211">
-        <v>201</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B212">
-        <v>129</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B213">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B214">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B215">
-        <v>183</v>
+        <v>95</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B216">
-        <v>159</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B217">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B218">
-        <v>232</v>
+        <v>106</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B219">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B220">
-        <v>202</v>
+        <v>105</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B221">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B222">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B223">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B224">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B225">
-        <v>183</v>
+        <v>106</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B226">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B227">
-        <v>205</v>
+        <v>84</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B228">
-        <v>319</v>
+        <v>94</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B229">
-        <v>264</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B230">
-        <v>292</v>
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B231">
-        <v>210</v>
+        <v>128</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B232">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B233">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B234">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B235">
-        <v>153</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B236">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B237">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B238">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B239">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B240">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B241">
-        <v>142</v>
+        <v>61</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B242">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243">
-        <v>142</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B244">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B245">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B246">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B247">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B248">
-        <v>136</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B249">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B250">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B251">
-        <v>145</v>
+        <v>101</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B252">
-        <v>156</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B253">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B254">
-        <v>157</v>
+        <v>93</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B255">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B256">
-        <v>43</v>
+        <v>142</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B257">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B258">
-        <v>140</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B259">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B260">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B261">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B262">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B263">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B264">
-        <v>159</v>
+        <v>91</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B265">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B266">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B267">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B268">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B269">
-        <v>176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B270">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B271">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B272">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B273">
-        <v>177</v>
+        <v>243</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B274">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B275">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B276">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B277">
-        <v>178</v>
+        <v>85</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B278">
-        <v>60</v>
+        <v>295</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B279">
-        <v>176</v>
+        <v>682</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B280">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B281">
-        <v>131</v>
+        <v>232</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B282">
-        <v>94</v>
+        <v>160</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B283">
-        <v>109</v>
+        <v>212</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B284">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B285">
-        <v>161</v>
+        <v>348</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B286">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B287">
-        <v>101</v>
+        <v>249</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B288">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B289">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B290">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B291">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B292">
-        <v>145</v>
+        <v>406</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B293">
-        <v>104</v>
+        <v>197</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B294">
-        <v>157</v>
+        <v>200</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B295">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B296">
-        <v>117</v>
+        <v>183</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B297">
-        <v>215</v>
+        <v>335</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B298">
-        <v>118</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B299">
-        <v>233</v>
+        <v>627</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B300">
-        <v>178</v>
+        <v>335</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B301">
-        <v>105</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B302">
-        <v>93</v>
+        <v>229</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B303">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B304">
-        <v>70</v>
+        <v>270</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B305">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306">
-        <v>4</v>
-      </c>
-      <c r="B306">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307">
-        <v>5</v>
-      </c>
-      <c r="B307">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308">
-        <v>5</v>
-      </c>
-      <c r="B308">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E081DC9-FD55-40BF-82C7-449F4D33ED10}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>141</v>
+      </c>
+      <c r="B1">
+        <f>AVERAGE(A1:A27)</f>
+        <v>122.96296296296296</v>
+      </c>
+      <c r="C1">
+        <f>B1-B2</f>
+        <v>97.847106063261762</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>147</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309">
-        <v>5</v>
-      </c>
-      <c r="B309">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310">
-        <v>5</v>
-      </c>
-      <c r="B310">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311">
-        <v>5</v>
-      </c>
-      <c r="B311">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312">
-        <v>5</v>
-      </c>
-      <c r="B312">
+      <c r="B2">
+        <f>_xlfn.STDEV.S(A1:A27)</f>
+        <v>25.1158568997012</v>
+      </c>
+      <c r="C2">
+        <f>B1+B2</f>
+        <v>148.07881986266415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>144</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313">
-        <v>5</v>
-      </c>
-      <c r="B313">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314">
-        <v>5</v>
-      </c>
-      <c r="B314">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315">
-        <v>5</v>
-      </c>
-      <c r="B315">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316">
-        <v>5</v>
-      </c>
-      <c r="B316">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317">
-        <v>5</v>
-      </c>
-      <c r="B317">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318">
-        <v>5</v>
-      </c>
-      <c r="B318">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319">
-        <v>5</v>
-      </c>
-      <c r="B319">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320">
-        <v>5</v>
-      </c>
-      <c r="B320">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321">
-        <v>5</v>
-      </c>
-      <c r="B321">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>103</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322">
-        <v>5</v>
-      </c>
-      <c r="B322">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323">
-        <v>5</v>
-      </c>
-      <c r="B323">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324">
-        <v>5</v>
-      </c>
-      <c r="B324">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325">
-        <v>5</v>
-      </c>
-      <c r="B325">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326">
-        <v>5</v>
-      </c>
-      <c r="B326">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>140</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327">
-        <v>5</v>
-      </c>
-      <c r="B327">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328">
-        <v>5</v>
-      </c>
-      <c r="B328">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329">
-        <v>5</v>
-      </c>
-      <c r="B329">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330">
-        <v>5</v>
-      </c>
-      <c r="B330">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331">
-        <v>5</v>
-      </c>
-      <c r="B331">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332">
-        <v>5</v>
-      </c>
-      <c r="B332">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333">
-        <v>5</v>
-      </c>
-      <c r="B333">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>104</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334">
-        <v>5</v>
-      </c>
-      <c r="B334">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335">
-        <v>5</v>
-      </c>
-      <c r="B335">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336">
-        <v>5</v>
-      </c>
-      <c r="B336">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337">
-        <v>5</v>
-      </c>
-      <c r="B337">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338">
-        <v>5</v>
-      </c>
-      <c r="B338">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339">
-        <v>5</v>
-      </c>
-      <c r="B339">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340">
-        <v>5</v>
-      </c>
-      <c r="B340">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341">
-        <v>5</v>
-      </c>
-      <c r="B341">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342">
-        <v>5</v>
-      </c>
-      <c r="B342">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343">
-        <v>5</v>
-      </c>
-      <c r="B343">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344">
-        <v>5</v>
-      </c>
-      <c r="B344">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345">
-        <v>5</v>
-      </c>
-      <c r="B345">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346">
-        <v>5</v>
-      </c>
-      <c r="B346">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347">
-        <v>5</v>
-      </c>
-      <c r="B347">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348">
-        <v>5</v>
-      </c>
-      <c r="B348">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349">
-        <v>5</v>
-      </c>
-      <c r="B349">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350">
-        <v>5</v>
-      </c>
-      <c r="B350">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351">
-        <v>5</v>
-      </c>
-      <c r="B351">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352">
-        <v>5</v>
-      </c>
-      <c r="B352">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353">
-        <v>5</v>
-      </c>
-      <c r="B353">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354">
-        <v>5</v>
-      </c>
-      <c r="B354">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355">
-        <v>5</v>
-      </c>
-      <c r="B355">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356">
-        <v>5</v>
-      </c>
-      <c r="B356">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357">
-        <v>5</v>
-      </c>
-      <c r="B357">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358">
-        <v>5</v>
-      </c>
-      <c r="B358">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359">
-        <v>5</v>
-      </c>
-      <c r="B359">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360">
-        <v>5</v>
-      </c>
-      <c r="B360">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361">
-        <v>5</v>
-      </c>
-      <c r="B361">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362">
-        <v>5</v>
-      </c>
-      <c r="B362">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363">
-        <v>5</v>
-      </c>
-      <c r="B363">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364">
-        <v>5</v>
-      </c>
-      <c r="B364">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365">
-        <v>5</v>
-      </c>
-      <c r="B365">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366">
-        <v>5</v>
-      </c>
-      <c r="B366">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367">
-        <v>5</v>
-      </c>
-      <c r="B367">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368">
-        <v>5</v>
-      </c>
-      <c r="B368">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369">
-        <v>5</v>
-      </c>
-      <c r="B369">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370">
-        <v>5</v>
-      </c>
-      <c r="B370">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>5</v>
-      </c>
-      <c r="B371">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>5</v>
-      </c>
-      <c r="B372">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>5</v>
-      </c>
-      <c r="B373">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>5</v>
-      </c>
-      <c r="B374">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>5</v>
-      </c>
-      <c r="B375">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>5</v>
-      </c>
-      <c r="B376">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>5</v>
-      </c>
-      <c r="B377">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>5</v>
-      </c>
-      <c r="B378">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379">
-        <v>5</v>
-      </c>
-      <c r="B379">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>5</v>
-      </c>
-      <c r="B380">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381">
-        <v>5</v>
-      </c>
-      <c r="B381">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382">
-        <v>5</v>
-      </c>
-      <c r="B382">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383">
-        <v>5</v>
-      </c>
-      <c r="B383">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384">
-        <v>5</v>
-      </c>
-      <c r="B384">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385">
-        <v>6</v>
-      </c>
-      <c r="B385">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386">
-        <v>6</v>
-      </c>
-      <c r="B386">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387">
-        <v>6</v>
-      </c>
-      <c r="B387">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388">
-        <v>6</v>
-      </c>
-      <c r="B388">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389">
-        <v>6</v>
-      </c>
-      <c r="B389">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390">
-        <v>6</v>
-      </c>
-      <c r="B390">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391">
-        <v>6</v>
-      </c>
-      <c r="B391">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392">
-        <v>6</v>
-      </c>
-      <c r="B392">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393">
-        <v>6</v>
-      </c>
-      <c r="B393">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394">
-        <v>6</v>
-      </c>
-      <c r="B394">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395">
-        <v>6</v>
-      </c>
-      <c r="B395">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396">
-        <v>6</v>
-      </c>
-      <c r="B396">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397">
-        <v>6</v>
-      </c>
-      <c r="B397">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398">
-        <v>6</v>
-      </c>
-      <c r="B398">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399">
-        <v>6</v>
-      </c>
-      <c r="B399">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400">
-        <v>6</v>
-      </c>
-      <c r="B400">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401">
-        <v>6</v>
-      </c>
-      <c r="B401">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402">
-        <v>6</v>
-      </c>
-      <c r="B402">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403">
-        <v>6</v>
-      </c>
-      <c r="B403">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>93</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404">
-        <v>6</v>
-      </c>
-      <c r="B404">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405">
-        <v>6</v>
-      </c>
-      <c r="B405">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406">
-        <v>6</v>
-      </c>
-      <c r="B406">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407">
-        <v>6</v>
-      </c>
-      <c r="B407">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408">
-        <v>6</v>
-      </c>
-      <c r="B408">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409">
-        <v>6</v>
-      </c>
-      <c r="B409">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410">
-        <v>6</v>
-      </c>
-      <c r="B410">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411">
-        <v>6</v>
-      </c>
-      <c r="B411">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412">
-        <v>6</v>
-      </c>
-      <c r="B412">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413">
-        <v>6</v>
-      </c>
-      <c r="B413">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414">
-        <v>6</v>
-      </c>
-      <c r="B414">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415">
-        <v>6</v>
-      </c>
-      <c r="B415">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416">
-        <v>6</v>
-      </c>
-      <c r="B416">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417">
-        <v>6</v>
-      </c>
-      <c r="B417">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418">
-        <v>6</v>
-      </c>
-      <c r="B418">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419">
-        <v>6</v>
-      </c>
-      <c r="B419">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420">
-        <v>6</v>
-      </c>
-      <c r="B420">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421">
-        <v>6</v>
-      </c>
-      <c r="B421">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422">
-        <v>6</v>
-      </c>
-      <c r="B422">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423">
-        <v>6</v>
-      </c>
-      <c r="B423">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424">
-        <v>6</v>
-      </c>
-      <c r="B424">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425">
-        <v>6</v>
-      </c>
-      <c r="B425">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426">
-        <v>6</v>
-      </c>
-      <c r="B426">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427">
-        <v>6</v>
-      </c>
-      <c r="B427">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428">
-        <v>6</v>
-      </c>
-      <c r="B428">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429">
-        <v>6</v>
-      </c>
-      <c r="B429">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430">
-        <v>6</v>
-      </c>
-      <c r="B430">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431">
-        <v>6</v>
-      </c>
-      <c r="B431">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432">
-        <v>6</v>
-      </c>
-      <c r="B432">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433">
-        <v>6</v>
-      </c>
-      <c r="B433">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434">
-        <v>6</v>
-      </c>
-      <c r="B434">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435">
-        <v>6</v>
-      </c>
-      <c r="B435">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436">
-        <v>6</v>
-      </c>
-      <c r="B436">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437">
-        <v>6</v>
-      </c>
-      <c r="B437">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438">
-        <v>6</v>
-      </c>
-      <c r="B438">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439">
-        <v>6</v>
-      </c>
-      <c r="B439">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440">
-        <v>6</v>
-      </c>
-      <c r="B440">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441">
-        <v>6</v>
-      </c>
-      <c r="B441">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442">
-        <v>6</v>
-      </c>
-      <c r="B442">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443">
-        <v>6</v>
-      </c>
-      <c r="B443">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444">
-        <v>6</v>
-      </c>
-      <c r="B444">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445">
-        <v>6</v>
-      </c>
-      <c r="B445">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446">
-        <v>6</v>
-      </c>
-      <c r="B446">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447">
-        <v>6</v>
-      </c>
-      <c r="B447">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448">
-        <v>6</v>
-      </c>
-      <c r="B448">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449">
-        <v>6</v>
-      </c>
-      <c r="B449">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450">
-        <v>6</v>
-      </c>
-      <c r="B450">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451">
-        <v>6</v>
-      </c>
-      <c r="B451">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452">
-        <v>6</v>
-      </c>
-      <c r="B452">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453">
-        <v>6</v>
-      </c>
-      <c r="B453">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454">
-        <v>6</v>
-      </c>
-      <c r="B454">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455">
-        <v>6</v>
-      </c>
-      <c r="B455">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456">
-        <v>6</v>
-      </c>
-      <c r="B456">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457">
-        <v>7</v>
-      </c>
-      <c r="B457">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458">
-        <v>7</v>
-      </c>
-      <c r="B458">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459">
-        <v>7</v>
-      </c>
-      <c r="B459">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460">
-        <v>7</v>
-      </c>
-      <c r="B460">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461">
-        <v>7</v>
-      </c>
-      <c r="B461">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462">
-        <v>7</v>
-      </c>
-      <c r="B462">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463">
-        <v>7</v>
-      </c>
-      <c r="B463">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464">
-        <v>7</v>
-      </c>
-      <c r="B464">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465">
-        <v>7</v>
-      </c>
-      <c r="B465">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466">
-        <v>7</v>
-      </c>
-      <c r="B466">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467">
-        <v>7</v>
-      </c>
-      <c r="B467">
-        <v>440</v>
       </c>
     </row>
   </sheetData>
